--- a/biology/Médecine/Ciliopathie/Ciliopathie.xlsx
+++ b/biology/Médecine/Ciliopathie/Ciliopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ciliopathies sont un grand groupe de troubles humains causés par un dysfonctionnement des cils primaires ou mobiles et unifiés par leurs caractéristiques cliniques qui se chevauchent (malformations cérébrales, dystrophie rétinienne, maladie rénale kystique, fibrose hépatique et anomalies squelettiques[1]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ciliopathies sont un grand groupe de troubles humains causés par un dysfonctionnement des cils primaires ou mobiles et unifiés par leurs caractéristiques cliniques qui se chevauchent (malformations cérébrales, dystrophie rétinienne, maladie rénale kystique, fibrose hépatique et anomalies squelettiques).
 </t>
         </is>
       </c>
